--- a/Yoklama.xlsx
+++ b/Yoklama.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skarahoda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\SUSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>Görkem Çetin</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Mehmet Kerem Çitak</t>
   </si>
   <si>
-    <t>Erkut batuhan Şener</t>
-  </si>
-  <si>
     <t>Sinem Kurnaz</t>
   </si>
   <si>
@@ -114,6 +111,15 @@
   </si>
   <si>
     <t>20.35</t>
+  </si>
+  <si>
+    <t>10.11.2015-YK</t>
+  </si>
+  <si>
+    <t>Hastalık</t>
+  </si>
+  <si>
+    <t>Erkut Batuhan Şener</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +521,9 @@
     <col min="4" max="4" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="11.42578125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="11.42578125" style="5" customWidth="1"/>
     <col min="17" max="17" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -525,34 +533,40 @@
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -560,22 +574,28 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q2" s="3">
-        <f>COUNTIF(B2:O2,"+")</f>
-        <v>1</v>
+        <f t="shared" ref="Q2:Q16" si="0">COUNTIF(B2:O2,"+")</f>
+        <v>2</v>
       </c>
       <c r="R2" s="3">
-        <f>COUNTIF(B2:O2,"-")</f>
-        <v>1</v>
+        <f t="shared" ref="R2:R16" si="1">COUNTIF(B2:O2,"-")</f>
+        <v>2</v>
       </c>
       <c r="S2" s="3">
-        <f>COUNTBLANK(B2:O2)+COUNTA(B2:O2)-Q2-R2</f>
-        <v>12</v>
+        <f t="shared" ref="S2:S16" si="2">COUNTBLANK(B2:O2)+COUNTA(B2:O2)-Q2-R2</f>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -583,22 +603,25 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="Q3" s="4">
-        <f>COUNTIF(B3:O3,"+")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R3" s="4">
-        <f>COUNTIF(B3:O3,"-")</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="S3" s="4">
-        <f>COUNTBLANK(B3:O3)+COUNTA(B3:O3)-Q3-R3</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -606,19 +629,25 @@
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q4" s="3">
-        <f>COUNTIF(B4:O4,"+")</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="R4" s="3">
-        <f>COUNTIF(B4:O4,"-")</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="S4" s="3">
-        <f>COUNTBLANK(B4:O4)+COUNTA(B4:O4)-Q4-R4</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -626,22 +655,25 @@
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q5" s="4">
-        <f>COUNTIF(B5:O5,"+")</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="R5" s="4">
-        <f>COUNTIF(B5:O5,"-")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" s="4">
-        <f>COUNTBLANK(B5:O5)+COUNTA(B5:O5)-Q5-R5</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -649,263 +681,317 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q6" s="3">
-        <f>COUNTIF(B6:O6,"+")</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="R6" s="3">
-        <f>COUNTIF(B6:O6,"-")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S6" s="3">
-        <f>COUNTBLANK(B6:O6)+COUNTA(B6:O6)-Q6-R6</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q7" s="4">
-        <f>COUNTIF(B7:O7,"+")</f>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R7" s="4">
-        <f>COUNTIF(B7:O7,"-")</f>
-        <v>1</v>
-      </c>
       <c r="S7" s="4">
-        <f>COUNTBLANK(B7:O7)+COUNTA(B7:O7)-Q7-R7</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q8" s="3">
-        <f>COUNTIF(B8:O8,"+")</f>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R8" s="3">
-        <f>COUNTIF(B8:O8,"-")</f>
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
-        <f>COUNTBLANK(B8:O8)+COUNTA(B8:O8)-Q8-R8</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q9" s="4">
-        <f>COUNTIF(B9:O9,"+")</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="R9" s="4">
-        <f>COUNTIF(B9:O9,"-")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S9" s="4">
-        <f>COUNTBLANK(B9:O9)+COUNTA(B9:O9)-Q9-R9</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="Q10" s="3">
-        <f>COUNTIF(B10:O10,"+")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R10" s="3">
-        <f>COUNTIF(B10:O10,"-")</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="S10" s="3">
-        <f>COUNTBLANK(B10:O10)+COUNTA(B10:O10)-Q10-R10</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q11" s="4">
-        <f>COUNTIF(B11:O11,"+")</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="R11" s="4">
-        <f>COUNTIF(B11:O11,"-")</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="S11" s="4">
-        <f>COUNTBLANK(B11:O11)+COUNTA(B11:O11)-Q11-R11</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q12" s="3">
-        <f>COUNTIF(B12:O12,"+")</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="R12" s="3">
-        <f>COUNTIF(B12:O12,"-")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <f>COUNTBLANK(B12:O12)+COUNTA(B12:O12)-Q12-R12</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q13" s="4">
-        <f>COUNTIF(B13:O13,"+")</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="R13" s="4">
-        <f>COUNTIF(B13:O13,"-")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S13" s="4">
-        <f>COUNTBLANK(B13:O13)+COUNTA(B13:O13)-Q13-R13</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q14" s="3">
-        <f>COUNTIF(B14:O14,"+")</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="R14" s="3">
-        <f>COUNTIF(B14:O14,"-")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S14" s="3">
-        <f>COUNTBLANK(B14:O14)+COUNTA(B14:O14)-Q14-R14</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q15" s="4">
-        <f>COUNTIF(B15:O15,"+")</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="R15" s="4">
-        <f>COUNTIF(B15:O15,"-")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S15" s="4">
-        <f>COUNTBLANK(B15:O15)+COUNTA(B15:O15)-Q15-R15</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q16" s="3">
-        <f>COUNTIF(B16:O16,"+")</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="R16" s="3">
-        <f>COUNTIF(B16:O16,"-")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S16" s="3">
-        <f>COUNTBLANK(B16:O16)+COUNTA(B16:O16)-Q16-R16</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ref="B17:D17" si="0">COUNTIF(B2:B16,"+")</f>
+        <f t="shared" ref="B17:D17" si="3">COUNTIF(B2:B16,"+")</f>
         <v>0</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ref="E17:P17" si="1">COUNTIF(E2:E16,"+")</f>
+        <f t="shared" ref="E17:P17" si="4">COUNTIF(E2:E16,"+")</f>
         <v>0</v>
       </c>
       <c r="F17" s="1">
@@ -913,43 +999,43 @@
         <v>8</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>

--- a/Yoklama.xlsx
+++ b/Yoklama.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>Görkem Çetin</t>
   </si>
@@ -510,7 +510,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,9 +689,12 @@
       <c r="I6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="Q6" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="1"/>
@@ -699,7 +702,7 @@
       </c>
       <c r="S6" s="3">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -845,9 +848,12 @@
       <c r="I12" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="J12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="Q12" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" s="3">
         <f t="shared" si="1"/>
@@ -855,7 +861,7 @@
       </c>
       <c r="S12" s="3">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1012,7 +1018,7 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="4"/>
